--- a/www/IndicatorsPerCountry/Turkmenistan_GDPperCapita_TerritorialRef_1991_2012_CCode_795.xlsx
+++ b/www/IndicatorsPerCountry/Turkmenistan_GDPperCapita_TerritorialRef_1991_2012_CCode_795.xlsx
@@ -132,13 +132,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Turkmenistan_GDPperCapita_TerritorialRef_1991_2012_CCode_795.xlsx
+++ b/www/IndicatorsPerCountry/Turkmenistan_GDPperCapita_TerritorialRef_1991_2012_CCode_795.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="58">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,73 +36,121 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>4826</t>
+    <t>7693</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>3635.86659377</t>
-  </si>
-  <si>
-    <t>3384.70289151</t>
-  </si>
-  <si>
-    <t>2813.15229454</t>
-  </si>
-  <si>
-    <t>2791.41129351</t>
-  </si>
-  <si>
-    <t>2258.94739471</t>
-  </si>
-  <si>
-    <t>2064.51359788</t>
-  </si>
-  <si>
-    <t>2168.29223541</t>
-  </si>
-  <si>
-    <t>1894.52819946</t>
-  </si>
-  <si>
-    <t>1999.66210905</t>
-  </si>
-  <si>
-    <t>2296.06049744</t>
-  </si>
-  <si>
-    <t>2387.93093618</t>
-  </si>
-  <si>
-    <t>2458.70405624</t>
-  </si>
-  <si>
-    <t>2433.16044913</t>
-  </si>
-  <si>
-    <t>2483.2479064</t>
-  </si>
-  <si>
-    <t>2565.44752587</t>
-  </si>
-  <si>
-    <t>2865.28560738</t>
-  </si>
-  <si>
-    <t>3142.25712663</t>
-  </si>
-  <si>
-    <t>3449.62219527</t>
-  </si>
-  <si>
-    <t>3913.18403221</t>
-  </si>
-  <si>
-    <t>4104.25713566</t>
-  </si>
-  <si>
-    <t>4431.91594016</t>
+    <t>6763</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>6575</t>
+  </si>
+  <si>
+    <t>6535</t>
+  </si>
+  <si>
+    <t>6314</t>
+  </si>
+  <si>
+    <t>6186</t>
+  </si>
+  <si>
+    <t>6204</t>
+  </si>
+  <si>
+    <t>6194</t>
+  </si>
+  <si>
+    <t>6601</t>
+  </si>
+  <si>
+    <t>5915</t>
+  </si>
+  <si>
+    <t>5796</t>
+  </si>
+  <si>
+    <t>5457.75692573531</t>
+  </si>
+  <si>
+    <t>4587.76365541108</t>
+  </si>
+  <si>
+    <t>4604.38415341451</t>
+  </si>
+  <si>
+    <t>3769.62476924548</t>
+  </si>
+  <si>
+    <t>3473.68018927826</t>
+  </si>
+  <si>
+    <t>3226.98483638665</t>
+  </si>
+  <si>
+    <t>2856.14860685559</t>
+  </si>
+  <si>
+    <t>3037.70433134861</t>
+  </si>
+  <si>
+    <t>3527.16046040025</t>
+  </si>
+  <si>
+    <t>4173.19459953499</t>
+  </si>
+  <si>
+    <t>5014.06245100545</t>
+  </si>
+  <si>
+    <t>5795.6409686451</t>
+  </si>
+  <si>
+    <t>6784.56100135347</t>
+  </si>
+  <si>
+    <t>7781.74382479198</t>
+  </si>
+  <si>
+    <t>8791.67584575014</t>
+  </si>
+  <si>
+    <t>9752.35547849855</t>
+  </si>
+  <si>
+    <t>10829.3757801065</t>
+  </si>
+  <si>
+    <t>12426.718788804</t>
+  </si>
+  <si>
+    <t>13188.4478549552</t>
+  </si>
+  <si>
+    <t>14397.1490969721</t>
+  </si>
+  <si>
+    <t>16518</t>
+  </si>
+  <si>
+    <t>18135</t>
+  </si>
+  <si>
+    <t>19751</t>
+  </si>
+  <si>
+    <t>21546</t>
+  </si>
+  <si>
+    <t>22675</t>
+  </si>
+  <si>
+    <t>23813</t>
   </si>
   <si>
     <t>Description</t>
@@ -339,7 +387,7 @@
         <v>1980.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -356,7 +404,7 @@
         <v>1981.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -373,7 +421,7 @@
         <v>1982.0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -390,7 +438,7 @@
         <v>1983.0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -407,7 +455,7 @@
         <v>1984.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -424,7 +472,7 @@
         <v>1985.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -441,7 +489,7 @@
         <v>1986.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -458,7 +506,7 @@
         <v>1987.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -475,7 +523,7 @@
         <v>1988.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -492,7 +540,7 @@
         <v>1989.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -509,7 +557,7 @@
         <v>1990.0</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -526,7 +574,7 @@
         <v>1991.0</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -543,7 +591,7 @@
         <v>1992.0</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -560,7 +608,7 @@
         <v>1993.0</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -577,7 +625,7 @@
         <v>1994.0</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -594,7 +642,7 @@
         <v>1995.0</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -611,7 +659,7 @@
         <v>1996.0</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -628,7 +676,7 @@
         <v>1997.0</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +693,7 @@
         <v>1998.0</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +710,7 @@
         <v>1999.0</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -679,7 +727,7 @@
         <v>2000.0</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -696,7 +744,7 @@
         <v>2001.0</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -713,7 +761,7 @@
         <v>2002.0</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -730,7 +778,7 @@
         <v>2003.0</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -747,7 +795,7 @@
         <v>2004.0</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -764,7 +812,7 @@
         <v>2005.0</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -781,7 +829,7 @@
         <v>2006.0</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -798,7 +846,7 @@
         <v>2007.0</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -815,7 +863,7 @@
         <v>2008.0</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
@@ -832,7 +880,7 @@
         <v>2009.0</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -849,7 +897,109 @@
         <v>2010.0</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -867,50 +1017,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
